--- a/Dataset/BinaryOp.xlsx
+++ b/Dataset/BinaryOp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F79934-6118-4E3C-9A22-DEF64763904B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83656BF5-5A38-4E52-A54C-BE40DD91965A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1686,9 +1686,6 @@
     <t>(def c (not= a b))</t>
   </si>
   <si>
-    <t>(def c (join a b))</t>
-  </si>
-  <si>
     <t>(def c (Math/pow a b))</t>
   </si>
   <si>
@@ -1708,6 +1705,9 @@
   </si>
   <si>
     <t>Clojure</t>
+  </si>
+  <si>
+    <t>(def c (str a b))</t>
   </si>
 </sst>
 </file>
@@ -2102,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2124,22 +2124,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2343,7 +2343,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2361,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
